--- a/DataScience/02_Pandas_2/RelatorioLojas/02_RankingLojas.xlsx
+++ b/DataScience/02_Pandas_2/RelatorioLojas/02_RankingLojas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,32 +506,48 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Loja E</t>
+          <t>Loja G</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>65</v>
+        <v>11</v>
       </c>
       <c r="C5" t="n">
-        <v>388</v>
+        <v>560.8499999999999</v>
       </c>
       <c r="D5" t="n">
-        <v>5.97</v>
+        <v>50.99</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
+          <t>Loja E</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>65</v>
+      </c>
+      <c r="C6" t="n">
+        <v>388</v>
+      </c>
+      <c r="D6" t="n">
+        <v>5.97</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
           <t>Loja D</t>
         </is>
       </c>
-      <c r="B6" t="n">
+      <c r="B7" t="n">
         <v>36</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>298</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>8.279999999999999</v>
       </c>
     </row>
